--- a/data/raw/JOHNPAUL_20250805_cycle1.xlsx
+++ b/data/raw/JOHNPAUL_20250805_cycle1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Desktop\D3QN\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ECFBCF-3F38-443C-96D4-A06053317045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D62FC5-2741-4860-8B9A-11A420E8A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,45 +240,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4533900" cy="3914775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -479,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1399,9 +1360,7 @@
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2">
         <v>300</v>
       </c>
@@ -1411,7 +1370,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <f>VLOOKUP(C23,Vehicle_Params!$A:$B,2,FALSE)</f>
@@ -1419,15 +1378,15 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2704,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4017,35 +3975,35 @@
       </c>
       <c r="D5" s="2">
         <f>SUMIFS(Raw_Annotations!$D:$D,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <f>SUMIFS(Raw_Annotations!$I:$I,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5)</f>
-        <v>83.9</v>
+        <v>72.7</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>912</v>
       </c>
       <c r="G5" s="2">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5)</f>
-        <v>335.7</v>
+        <v>215.7</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
-        <v>4028.4</v>
+        <v>2588.4</v>
       </c>
       <c r="I5" s="2">
         <f>SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$G:$G,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Bus")</f>
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>0.74471254095918982</v>
+        <v>0.60268891979601302</v>
       </c>
       <c r="K5" s="2">
         <f>IF(E5=0,0,(SUMIFS(Raw_Annotations!$I:$I,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Jeepney")+SUMIFS(Raw_Annotations!$I:$I,Raw_Annotations!$A:$A,$A5,Raw_Annotations!$B:$B,$B5,Raw_Annotations!$C:$C,"Bus"))/E5)</f>
-        <v>0.41239570917759238</v>
+        <v>0.3218707015130674</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
